--- a/campionato/squadre/pontedera/italeng/italeng.xlsx
+++ b/campionato/squadre/pontedera/italeng/italeng.xlsx
@@ -7,22 +7,28 @@
     <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Foglio1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>Partita</t>
   </si>
   <si>
+    <t>Minuto</t>
+  </si>
+  <si>
     <t>Esito</t>
   </si>
   <si>
-    <t>Minuto</t>
+    <t>Risultato</t>
+  </si>
+  <si>
+    <t>Link</t>
   </si>
   <si>
     <t>Top</t>
@@ -31,7 +37,10 @@
     <t>Left</t>
   </si>
   <si>
-    <t>Risultato</t>
+    <t>Indice di Pressione</t>
+  </si>
+  <si>
+    <t>Video</t>
   </si>
   <si>
     <t>Squadra</t>
@@ -40,19 +49,34 @@
     <t>Piede</t>
   </si>
   <si>
-    <t>Link</t>
-  </si>
-  <si>
-    <t>Atalanta u23 - vve</t>
+    <t>Pontedera-Legnago</t>
+  </si>
+  <si>
+    <t>0-0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1VuAngSdlH8&amp;list=PLD64-55Vi5w7yiVFjsv7VmbLBc6EvvnAh&amp;index=1</t>
+  </si>
+  <si>
+    <t>pontedera</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Pontedera-Perugia</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=KAmXnC-AbPk&amp;list=PLD64-55Vi5w7yiVFjsv7VmbLBc6EvvnAh&amp;index=2</t>
+  </si>
+  <si>
+    <t>Destro</t>
+  </si>
+  <si>
+    <t>Atalanta u23 - Virtus Verona</t>
   </si>
   <si>
     <t>1-3</t>
-  </si>
-  <si>
-    <t>pontedera</t>
-  </si>
-  <si>
-    <t>Destro</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=S8HJROjbImI&amp;list=PLD64-55Vi5w7yiVFjsv7VmbLBc6EvvnAh&amp;pp=gAQBiAQB</t>
@@ -63,7 +87,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,16 +96,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF1155cc"/>
-      <name val="Arial"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -93,12 +124,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -112,28 +158,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -160,28 +218,28 @@
         <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="000000"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4285F4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="EA4335"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="FBBC04"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="34A853"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="FF6D01"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="46BDC6"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="0000FF"/>
@@ -437,24 +495,26 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="6" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -464,52 +524,126 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="B2" s="4">
+        <v>18</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="4">
+        <v>10</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4">
+        <v>2</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="4">
+        <v>17</v>
+      </c>
+      <c r="C3" s="4">
         <v>1</v>
       </c>
-      <c r="C2" s="4">
+      <c r="D3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="7">
+        <v>4.8</v>
+      </c>
+      <c r="G3" s="7">
+        <v>18.5</v>
+      </c>
+      <c r="H3" s="4">
+        <v>2</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="4">
         <v>92</v>
       </c>
-      <c r="D2" s="4">
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="4">
         <v>10</v>
       </c>
-      <c r="E2" s="4">
+      <c r="G4" s="4">
         <v>11</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>13</v>
+      <c r="H4" s="8"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
